--- a/results/real_comparisons.xlsx
+++ b/results/real_comparisons.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="results_matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="60">
   <si>
     <t>S1</t>
   </si>
@@ -200,15 +199,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>sumary</t>
-  </si>
-  <si>
-    <t>Dominates</t>
-  </si>
-  <si>
-    <t>&gt;n-4</t>
   </si>
 </sst>
 </file>
@@ -692,9 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -743,21 +732,31 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -783,21 +782,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1111,705 +1100,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH62"/>
+  <dimension ref="A1:BH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AW1048576"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BH60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1">
-        <f>IF(COUNTIFS(B$4:B$62, "&gt;="&amp;0.9)=58, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <f t="shared" ref="C1:BH1" si="0">IF(COUNTIFS(C$4:C$62, "&gt;="&amp;0.9)=58, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <f>IF(COUNTIFS(U$4:U$62, "&gt;="&amp;0.9)=58, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2">
-        <f>IF(COUNTIFS(B$4:B$62, "&gt;="&amp;0.9)&gt;=55, 1, 0)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:BH2" si="1">IF(COUNTIFS(C$4:C$62, "&gt;="&amp;0.9)&gt;=55, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="R2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="S2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AQ2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BA2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BB2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BD2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BE2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BF2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BH2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0.33</v>
+      </c>
+      <c r="W3">
+        <v>0.23</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.16</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0.93</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1827,130 +1695,130 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.67</v>
+      </c>
+      <c r="W4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0.21</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0.66</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
         <v>0.99</v>
-      </c>
-      <c r="R4">
-        <v>0.67</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0.77</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>0.99</v>
-      </c>
-      <c r="AC4">
-        <v>0.79</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0.09</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
       </c>
       <c r="BE4">
         <v>0</v>
@@ -1967,20 +1835,20 @@
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -2009,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2030,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="W5">
-        <v>0.23</v>
+        <v>0.67</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2045,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -2114,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.16</v>
+        <v>0.94</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -2132,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2149,7 +2017,7 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2157,17 +2025,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2191,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2212,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.56999999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -2227,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2272,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2296,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -2314,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -2331,7 +2199,7 @@
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2342,17 +2210,17 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.98</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2376,10 +2244,10 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2394,14 +2262,14 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="W7">
+        <v>0.99</v>
+      </c>
+      <c r="X7">
         <v>0.67</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
@@ -2409,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2454,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2478,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -2496,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -2513,7 +2381,7 @@
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2527,15 +2395,15 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.93</v>
+      </c>
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="G8">
-        <v>0.02</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -2558,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.16</v>
+        <v>0.61</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2579,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -2594,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2636,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2695,10 +2563,10 @@
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2710,28 +2578,28 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
-      </c>
-      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="H9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2743,16 +2611,16 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.3</v>
+        <v>0.99</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -2761,13 +2629,13 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -2776,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2818,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2877,10 +2745,10 @@
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2895,17 +2763,17 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.93</v>
-      </c>
-      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.63</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
@@ -2925,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.61</v>
+        <v>0.98</v>
       </c>
       <c r="R10">
-        <v>0.04</v>
+        <v>0.65</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2946,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -2958,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.19</v>
+        <v>0.99</v>
       </c>
       <c r="AC10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.79</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3000,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3059,10 +2927,10 @@
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3082,20 +2950,20 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>0.64</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="J11">
-        <v>0.37</v>
-      </c>
-      <c r="K11">
-        <v>0.36</v>
-      </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3107,16 +2975,16 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="R11">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -3140,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AC11">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -3182,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3241,7 +3109,7 @@
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3265,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.63</v>
-      </c>
-      <c r="J12" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>59</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3292,7 +3160,7 @@
         <v>0.98</v>
       </c>
       <c r="R12">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -3313,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -3322,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -3364,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3423,7 +3291,7 @@
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3452,14 +3320,14 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>59</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3474,7 +3342,7 @@
         <v>0.98</v>
       </c>
       <c r="R13">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -3495,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -3504,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -3546,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3605,58 +3473,58 @@
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>59</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3665,31 +3533,31 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -3728,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3752,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3770,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="BD14">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -3787,58 +3655,58 @@
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.96</v>
+      </c>
+      <c r="O15" t="s">
         <v>59</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3850,28 +3718,28 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -3910,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3934,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -3952,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="BD15">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -3969,22 +3837,22 @@
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4007,17 +3875,17 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
         <v>59</v>
       </c>
-      <c r="O16">
-        <v>0.04</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -4029,25 +3897,25 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0.03</v>
+        <v>0.88</v>
       </c>
       <c r="W16">
-        <v>0.01</v>
+        <v>0.71</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -4116,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -4134,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="BD16">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="BE16">
         <v>0</v>
@@ -4151,91 +4019,91 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
-      </c>
-      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.99</v>
+      </c>
+      <c r="Q17" t="s">
         <v>59</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -4274,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4298,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -4316,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="BD17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="BE17">
         <v>0</v>
@@ -4333,43 +4201,43 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4377,48 +4245,48 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0.97</v>
+      </c>
+      <c r="R18" t="s">
         <v>59</v>
       </c>
-      <c r="Q18">
-        <v>0.01</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0.27</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
         <v>0.71</v>
       </c>
-      <c r="X18">
-        <v>0.05</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0.73</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
         <v>0</v>
       </c>
@@ -4456,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4480,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -4515,10 +4383,10 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4530,28 +4398,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4560,19 +4428,19 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>0.99</v>
-      </c>
-      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
         <v>59</v>
       </c>
-      <c r="R19">
-        <v>0.03</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
-        <v>0.02</v>
+        <v>0.91</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4584,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -4596,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.05</v>
+        <v>0.91</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -4638,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4697,10 +4565,10 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4718,22 +4586,22 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="J20">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4745,17 +4613,17 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.97</v>
-      </c>
-      <c r="R20" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="R20">
+        <v>0.68</v>
+      </c>
+      <c r="S20">
+        <v>0.09</v>
+      </c>
+      <c r="T20" t="s">
         <v>59</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0.32</v>
-      </c>
       <c r="U20">
         <v>1</v>
       </c>
@@ -4769,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="Y20">
-        <v>0.27</v>
+        <v>0.78</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -4781,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.71</v>
+        <v>0.81</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -4820,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -4879,91 +4747,91 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
         <v>59</v>
       </c>
-      <c r="T21">
-        <v>0.91</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -5002,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5026,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21">
         <v>0</v>
@@ -5044,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="BD21">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="BE21">
         <v>0</v>
@@ -5061,91 +4929,91 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>59</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>0.98</v>
       </c>
-      <c r="R22">
-        <v>0.68</v>
-      </c>
-      <c r="S22">
-        <v>0.09</v>
-      </c>
-      <c r="T22" t="s">
-        <v>59</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>0.78</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -5184,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5208,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -5226,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="BE22">
         <v>0</v>
@@ -5243,25 +5111,25 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5282,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5302,15 +5170,15 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>59</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
       <c r="X23">
         <v>0</v>
       </c>
@@ -5318,10 +5186,10 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -5390,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AY23">
         <v>0</v>
@@ -5408,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0.05</v>
+        <v>0.94</v>
       </c>
       <c r="BE23">
         <v>0</v>
@@ -5425,28 +5293,28 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G24">
         <v>0.33</v>
       </c>
-      <c r="E24">
-        <v>0.05</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5464,16 +5332,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0.12</v>
+        <v>0.95</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -5487,26 +5355,26 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
         <v>59</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -5572,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="AY24">
         <v>0</v>
@@ -5590,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -5607,91 +5475,91 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="C25">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0.97</v>
+      </c>
+      <c r="R25">
+        <v>0.73</v>
+      </c>
+      <c r="S25">
+        <v>0.03</v>
+      </c>
+      <c r="T25">
+        <v>0.22</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
         <v>0.99</v>
       </c>
-      <c r="O25">
-        <v>0.73</v>
-      </c>
-      <c r="P25">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25" t="s">
-        <v>59</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>0.35</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -5730,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -5754,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AY25">
         <v>0</v>
@@ -5772,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="BE25">
         <v>0</v>
@@ -5789,28 +5657,28 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5828,16 +5696,16 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -5849,28 +5717,28 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
         <v>59</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -5936,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AY26">
         <v>0</v>
@@ -5954,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="BE26">
         <v>0</v>
@@ -5971,172 +5839,172 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0.92</v>
+      </c>
+      <c r="P27">
+        <v>0.27</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0.84</v>
+      </c>
+      <c r="W27">
+        <v>0.65</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0.76</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
         <v>0.99</v>
-      </c>
-      <c r="I27">
-        <v>0.21</v>
-      </c>
-      <c r="J27">
-        <v>0.22</v>
-      </c>
-      <c r="K27">
-        <v>0.21</v>
-      </c>
-      <c r="L27">
-        <v>0.21</v>
-      </c>
-      <c r="M27">
-        <v>0.25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>0.97</v>
-      </c>
-      <c r="R27">
-        <v>0.73</v>
-      </c>
-      <c r="S27">
-        <v>0.03</v>
-      </c>
-      <c r="T27">
-        <v>0.22</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>0.99</v>
-      </c>
-      <c r="AC27">
-        <v>0.79</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0.1</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>1</v>
       </c>
       <c r="BE27">
         <v>0</v>
@@ -6153,37 +6021,37 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -6192,16 +6060,16 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -6213,29 +6081,29 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
         <v>59</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
         <v>0</v>
       </c>
@@ -6276,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6300,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28">
         <v>0</v>
@@ -6318,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="BE28">
         <v>0</v>
@@ -6335,92 +6203,92 @@
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
         <v>59</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
       <c r="AD29">
         <v>0</v>
       </c>
@@ -6458,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6482,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -6500,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BE29">
         <v>0</v>
@@ -6517,10 +6385,10 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6538,22 +6406,22 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -6565,16 +6433,16 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6586,49 +6454,49 @@
         <v>1</v>
       </c>
       <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
         <v>0.99</v>
       </c>
-      <c r="Y30">
-        <v>0.01</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -6640,19 +6508,19 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6667,42 +6535,42 @@
         <v>1</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BD30">
         <v>1</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6720,22 +6588,22 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -6747,16 +6615,16 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6771,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -6782,17 +6650,17 @@
       <c r="AB31">
         <v>1</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
         <v>59</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -6822,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -6849,10 +6717,10 @@
         <v>1</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -6867,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="BF31">
         <v>0</v>
@@ -6881,7 +6749,7 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6967,32 +6835,32 @@
       <c r="AC32">
         <v>1</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.98</v>
+      </c>
+      <c r="AF32" t="s">
         <v>59</v>
       </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="AI32">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -7007,16 +6875,16 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7034,16 +6902,16 @@
         <v>1</v>
       </c>
       <c r="AZ32">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="BA32">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BB32">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="BC32">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BD32">
         <v>1</v>
@@ -7052,18 +6920,18 @@
         <v>1</v>
       </c>
       <c r="BF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="BH32">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7152,26 +7020,26 @@
       <c r="AD33">
         <v>0</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
         <v>59</v>
       </c>
-      <c r="AF33">
+      <c r="AH33">
+        <v>0.86</v>
+      </c>
+      <c r="AI33">
+        <v>0.03</v>
+      </c>
+      <c r="AJ33">
         <v>0.02</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -7189,22 +7057,22 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AT33">
         <v>0</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -7213,39 +7081,39 @@
         <v>1</v>
       </c>
       <c r="AY33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
         <v>0.04</v>
       </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
       <c r="BB33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BD33">
         <v>1</v>
       </c>
       <c r="BE33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="BF33">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="BG33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BH33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7335,23 +7203,23 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0.98</v>
-      </c>
-      <c r="AF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0.97</v>
+      </c>
+      <c r="AG34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH34" t="s">
         <v>59</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
+      <c r="AI34">
+        <v>0.02</v>
+      </c>
+      <c r="AJ34">
         <v>0.03</v>
       </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
@@ -7371,13 +7239,13 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AR34">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -7398,10 +7266,10 @@
         <v>1</v>
       </c>
       <c r="AZ34">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
       <c r="BA34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BB34">
         <v>0</v>
@@ -7416,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="BF34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BG34">
         <v>0</v>
@@ -7427,7 +7295,7 @@
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7514,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -7522,53 +7390,53 @@
       <c r="AF35">
         <v>1</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35">
+        <v>0.97</v>
+      </c>
+      <c r="AH35">
+        <v>0.98</v>
+      </c>
+      <c r="AI35" t="s">
         <v>59</v>
       </c>
-      <c r="AH35">
-        <v>0.86</v>
-      </c>
-      <c r="AI35">
-        <v>0.03</v>
-      </c>
       <c r="AJ35">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>0.94</v>
+      </c>
+      <c r="AT35">
         <v>0.01</v>
       </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35">
-        <v>1</v>
-      </c>
-      <c r="AR35">
-        <v>1</v>
-      </c>
-      <c r="AS35">
-        <v>0.66</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
       <c r="AU35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AV35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AW35">
         <v>0</v>
@@ -7583,13 +7451,13 @@
         <v>1</v>
       </c>
       <c r="BA35">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="BB35">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="BC35">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BD35">
         <v>1</v>
@@ -7598,18 +7466,18 @@
         <v>1</v>
       </c>
       <c r="BF35">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="BG35">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="BH35">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7696,26 +7564,26 @@
         <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AE36">
         <v>1</v>
       </c>
       <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>0.98</v>
+      </c>
+      <c r="AH36">
         <v>0.97</v>
       </c>
-      <c r="AG36">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH36" t="s">
+      <c r="AI36">
+        <v>0.5</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>59</v>
       </c>
-      <c r="AI36">
-        <v>0.02</v>
-      </c>
-      <c r="AJ36">
-        <v>0.03</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
@@ -7738,13 +7606,13 @@
         <v>1</v>
       </c>
       <c r="AR36">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -7762,16 +7630,16 @@
         <v>1</v>
       </c>
       <c r="AZ36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="BA36">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="BB36">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BC36">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BD36">
         <v>1</v>
@@ -7780,18 +7648,18 @@
         <v>1</v>
       </c>
       <c r="BF36">
-        <v>0.3</v>
+        <v>0.97</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7878,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="AD37">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -7887,20 +7755,20 @@
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AH37">
-        <v>0.98</v>
-      </c>
-      <c r="AI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
         <v>59</v>
       </c>
-      <c r="AJ37">
-        <v>0.5</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
       <c r="AL37">
         <v>0</v>
       </c>
@@ -7923,10 +7791,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="AT37">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -7947,13 +7815,13 @@
         <v>1</v>
       </c>
       <c r="BA37">
-        <v>0.31</v>
+        <v>0.96</v>
       </c>
       <c r="BB37">
-        <v>0.18</v>
+        <v>0.85</v>
       </c>
       <c r="BC37">
-        <v>7.0000000000000007E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BD37">
         <v>1</v>
@@ -7962,18 +7830,18 @@
         <v>1</v>
       </c>
       <c r="BF37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BG37">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="BH37">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8060,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="AD38">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="AE38">
         <v>1</v>
@@ -8069,23 +7937,23 @@
         <v>1</v>
       </c>
       <c r="AG38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AH38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AI38">
-        <v>0.5</v>
-      </c>
-      <c r="AJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
         <v>59</v>
       </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
       <c r="AM38">
         <v>0</v>
       </c>
@@ -8105,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8129,13 +7997,13 @@
         <v>1</v>
       </c>
       <c r="BA38">
-        <v>0.35</v>
+        <v>0.96</v>
       </c>
       <c r="BB38">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
       <c r="BC38">
-        <v>0.2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="BD38">
         <v>1</v>
@@ -8144,18 +8012,18 @@
         <v>1</v>
       </c>
       <c r="BF38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="BG38">
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="BH38">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8242,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AD39">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>1</v>
@@ -8251,73 +8119,73 @@
         <v>1</v>
       </c>
       <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>0.7</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>1</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+      <c r="BA39">
         <v>0.99</v>
       </c>
-      <c r="AH39">
-        <v>1</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AJ39">
-        <v>1</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39">
-        <v>1</v>
-      </c>
-      <c r="AR39">
-        <v>1</v>
-      </c>
-      <c r="AS39">
-        <v>1</v>
-      </c>
-      <c r="AT39">
-        <v>0.35</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>1</v>
-      </c>
-      <c r="AZ39">
-        <v>1</v>
-      </c>
-      <c r="BA39">
-        <v>0.96</v>
-      </c>
       <c r="BB39">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="BC39">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="BD39">
         <v>1</v>
@@ -8329,15 +8197,15 @@
         <v>1</v>
       </c>
       <c r="BG39">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="BH39">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8424,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="AD40">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>1</v>
@@ -8447,15 +8315,15 @@
       <c r="AK40">
         <v>1</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
         <v>59</v>
       </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
       <c r="AO40">
         <v>0</v>
       </c>
@@ -8472,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8493,13 +8361,13 @@
         <v>1</v>
       </c>
       <c r="BA40">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="BB40">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="BC40">
-        <v>0.57999999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="BD40">
         <v>1</v>
@@ -8511,15 +8379,15 @@
         <v>1</v>
       </c>
       <c r="BG40">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="BH40">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8632,15 +8500,15 @@
       <c r="AL41">
         <v>1</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="s">
         <v>59</v>
       </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
       <c r="AP41">
         <v>1</v>
       </c>
@@ -8654,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -8693,18 +8561,18 @@
         <v>1</v>
       </c>
       <c r="BG41">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="BH41">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8716,28 +8584,28 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -8749,16 +8617,16 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8773,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Z42">
         <v>1</v>
@@ -8782,61 +8650,61 @@
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="AD42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="s">
         <v>59</v>
       </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -8851,39 +8719,39 @@
         <v>1</v>
       </c>
       <c r="AY42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BB42">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="BC42">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="BD42">
         <v>1</v>
       </c>
       <c r="BE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="BH42">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -8970,55 +8838,55 @@
         <v>1</v>
       </c>
       <c r="AD43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="s">
         <v>59</v>
       </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>1</v>
-      </c>
       <c r="AR43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9033,42 +8901,42 @@
         <v>1</v>
       </c>
       <c r="AY43">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AZ43">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="BA43">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BB43">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="BC43">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="BD43">
         <v>1</v>
       </c>
       <c r="BE43">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="BF43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="BH43">
-        <v>0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9080,28 +8948,28 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -9113,58 +8981,58 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
         <v>0.94</v>
       </c>
-      <c r="S44">
-        <v>0.92</v>
-      </c>
-      <c r="T44">
-        <v>0.93</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44">
-        <v>0.9</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44">
-        <v>0.94</v>
-      </c>
-      <c r="AC44">
-        <v>0.94</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -9187,15 +9055,15 @@
       <c r="AO44">
         <v>0</v>
       </c>
-      <c r="AP44" t="s">
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="s">
         <v>59</v>
       </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
       <c r="AS44">
         <v>0</v>
       </c>
@@ -9215,10 +9083,10 @@
         <v>1</v>
       </c>
       <c r="AY44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ44">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BA44">
         <v>0</v>
@@ -9233,10 +9101,10 @@
         <v>1</v>
       </c>
       <c r="BE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF44">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BG44">
         <v>0</v>
@@ -9247,7 +9115,7 @@
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -9337,22 +9205,22 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="AF45">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AK45">
         <v>0</v>
@@ -9372,15 +9240,15 @@
       <c r="AP45">
         <v>1</v>
       </c>
-      <c r="AQ45" t="s">
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="s">
         <v>59</v>
       </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
       <c r="AT45">
         <v>0</v>
       </c>
@@ -9397,13 +9265,13 @@
         <v>1</v>
       </c>
       <c r="AY45">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AZ45">
-        <v>0.05</v>
+        <v>0.96</v>
       </c>
       <c r="BA45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BB45">
         <v>0</v>
@@ -9415,10 +9283,10 @@
         <v>1</v>
       </c>
       <c r="BE45">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="BF45">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="BG45">
         <v>0</v>
@@ -9429,7 +9297,7 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -9516,102 +9384,102 @@
         <v>1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AE46">
         <v>1</v>
       </c>
       <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0.99</v>
+      </c>
+      <c r="AJ46">
+        <v>0.88</v>
+      </c>
+      <c r="AK46">
+        <v>0.65</v>
+      </c>
+      <c r="AL46">
+        <v>0.67</v>
+      </c>
+      <c r="AM46">
+        <v>0.3</v>
+      </c>
+      <c r="AN46">
+        <v>0.35</v>
+      </c>
+      <c r="AO46">
+        <v>0.33</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
         <v>0.94</v>
       </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0.15</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46">
-        <v>1</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>1</v>
-      </c>
-      <c r="AZ46">
+      <c r="BB46">
+        <v>0.86</v>
+      </c>
+      <c r="BC46">
+        <v>0.54</v>
+      </c>
+      <c r="BD46">
+        <v>1</v>
+      </c>
+      <c r="BE46">
+        <v>1</v>
+      </c>
+      <c r="BF46">
+        <v>1</v>
+      </c>
+      <c r="BG46">
         <v>0.8</v>
       </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>1</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
       <c r="BH46">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -9698,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
         <v>1</v>
@@ -9707,31 +9575,31 @@
         <v>1</v>
       </c>
       <c r="AG47">
-        <v>0.34</v>
+        <v>0.99</v>
       </c>
       <c r="AH47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="AJ47">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
         <v>1</v>
@@ -9742,15 +9610,15 @@
       <c r="AR47">
         <v>1</v>
       </c>
-      <c r="AS47" t="s">
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="s">
         <v>59</v>
       </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
       <c r="AV47">
         <v>0</v>
       </c>
@@ -9764,16 +9632,16 @@
         <v>1</v>
       </c>
       <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>0.99</v>
+      </c>
+      <c r="BB47">
         <v>0.96</v>
       </c>
-      <c r="BA47">
-        <v>0.01</v>
-      </c>
-      <c r="BB47">
-        <v>0</v>
-      </c>
       <c r="BC47">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="BD47">
         <v>1</v>
@@ -9782,18 +9650,18 @@
         <v>1</v>
       </c>
       <c r="BF47">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="BG47">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="BH47">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -9880,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="AD48">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>1</v>
@@ -9889,74 +9757,74 @@
         <v>1</v>
       </c>
       <c r="AG48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AH48">
         <v>1</v>
       </c>
       <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>1</v>
+      </c>
+      <c r="AZ48">
+        <v>1</v>
+      </c>
+      <c r="BA48">
         <v>0.99</v>
       </c>
-      <c r="AJ48">
-        <v>0.88</v>
-      </c>
-      <c r="AK48">
+      <c r="BB48">
+        <v>0.97</v>
+      </c>
+      <c r="BC48">
         <v>0.65</v>
       </c>
-      <c r="AL48">
-        <v>0.67</v>
-      </c>
-      <c r="AM48">
-        <v>0.3</v>
-      </c>
-      <c r="AN48">
-        <v>0.35</v>
-      </c>
-      <c r="AO48">
-        <v>0.33</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>1</v>
-      </c>
-      <c r="AS48">
-        <v>1</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>1</v>
-      </c>
-      <c r="AZ48">
-        <v>1</v>
-      </c>
-      <c r="BA48">
-        <v>0.94</v>
-      </c>
-      <c r="BB48">
-        <v>0.86</v>
-      </c>
-      <c r="BC48">
-        <v>0.54</v>
-      </c>
       <c r="BD48">
         <v>1</v>
       </c>
@@ -9967,15 +9835,15 @@
         <v>1</v>
       </c>
       <c r="BG48">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="BH48">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -10071,7 +9939,7 @@
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AH49">
         <v>1</v>
@@ -10112,14 +9980,14 @@
       <c r="AT49">
         <v>1</v>
       </c>
-      <c r="AU49" t="s">
+      <c r="AU49">
+        <v>1</v>
+      </c>
+      <c r="AV49">
+        <v>1</v>
+      </c>
+      <c r="AW49" t="s">
         <v>59</v>
-      </c>
-      <c r="AV49">
-        <v>0</v>
-      </c>
-      <c r="AW49">
-        <v>0</v>
       </c>
       <c r="AX49">
         <v>1</v>
@@ -10134,10 +10002,10 @@
         <v>0.99</v>
       </c>
       <c r="BB49">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="BC49">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="BD49">
         <v>1</v>
@@ -10152,194 +10020,194 @@
         <v>0.88</v>
       </c>
       <c r="BH49">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU50">
-        <v>1</v>
-      </c>
-      <c r="AV50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="s">
         <v>59</v>
       </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
       <c r="AY50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BB50">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="BC50">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="BD50">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="BE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG50">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="BH50">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -10426,201 +10294,201 @@
         <v>1</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AF51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51">
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AR51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51" t="s">
         <v>59</v>
       </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>1</v>
-      </c>
       <c r="AZ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BB51">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="BC51">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="BD51">
         <v>1</v>
       </c>
       <c r="BE51">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BF51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="BH51">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="W52">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AG52">
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -10644,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AR52">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AS52">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AT52">
         <v>0</v>
@@ -10667,15 +10535,15 @@
       <c r="AW52">
         <v>0</v>
       </c>
-      <c r="AX52" t="s">
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>1</v>
+      </c>
+      <c r="AZ52" t="s">
         <v>59</v>
       </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52">
-        <v>0</v>
-      </c>
       <c r="BA52">
         <v>0</v>
       </c>
@@ -10686,13 +10554,13 @@
         <v>0</v>
       </c>
       <c r="BD52">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="BE52">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="BF52">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="BG52">
         <v>0</v>
@@ -10703,7 +10571,7 @@
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -10790,77 +10658,77 @@
         <v>1</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE53">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AP53">
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AV53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AW53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AX53">
         <v>1</v>
       </c>
-      <c r="AY53" t="s">
+      <c r="AY53">
+        <v>1</v>
+      </c>
+      <c r="AZ53">
+        <v>1</v>
+      </c>
+      <c r="BA53" t="s">
         <v>59</v>
       </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
       <c r="BB53">
         <v>0</v>
       </c>
@@ -10871,21 +10739,21 @@
         <v>1</v>
       </c>
       <c r="BE53">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="BF53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG53">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BH53">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10972,64 +10840,64 @@
         <v>1</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AF54">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AH54">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AP54">
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AS54">
+        <v>1</v>
+      </c>
+      <c r="AT54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AU54">
         <v>0.04</v>
       </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
       <c r="AV54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AX54">
         <v>1</v>
@@ -11037,15 +10905,15 @@
       <c r="AY54">
         <v>1</v>
       </c>
-      <c r="AZ54" t="s">
+      <c r="AZ54">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="s">
         <v>59</v>
       </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
       <c r="BC54">
         <v>0</v>
       </c>
@@ -11053,21 +10921,21 @@
         <v>1</v>
       </c>
       <c r="BE54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="BF54">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="BG54">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BH54">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -11154,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="AD55">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="AE55">
         <v>1</v>
@@ -11163,275 +11031,275 @@
         <v>1</v>
       </c>
       <c r="AG55">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0.93</v>
+      </c>
+      <c r="AJ55">
+        <v>0.8</v>
+      </c>
+      <c r="AK55">
+        <v>0.45</v>
+      </c>
+      <c r="AL55">
+        <v>0.42</v>
+      </c>
+      <c r="AM55">
+        <v>0.32</v>
+      </c>
+      <c r="AN55">
+        <v>0.32</v>
+      </c>
+      <c r="AO55">
+        <v>0.32</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>0.46</v>
+      </c>
+      <c r="AU55">
+        <v>0.33</v>
+      </c>
+      <c r="AV55">
+        <v>0.35</v>
+      </c>
+      <c r="AW55">
+        <v>0.34</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>1</v>
+      </c>
+      <c r="AZ55">
+        <v>1</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>1</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD55">
+        <v>1</v>
+      </c>
+      <c r="BE55">
+        <v>1</v>
+      </c>
+      <c r="BF55">
+        <v>1</v>
+      </c>
+      <c r="BG55">
         <v>0.99</v>
       </c>
-      <c r="AI55">
-        <v>0.69</v>
-      </c>
-      <c r="AJ55">
-        <v>0.65</v>
-      </c>
-      <c r="AK55">
-        <v>0.04</v>
-      </c>
-      <c r="AL55">
-        <v>0.04</v>
-      </c>
-      <c r="AM55">
-        <v>0.01</v>
-      </c>
-      <c r="AN55">
-        <v>0.01</v>
-      </c>
-      <c r="AO55">
-        <v>0.01</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>1</v>
-      </c>
-      <c r="AS55">
+      <c r="BH55">
         <v>0.99</v>
-      </c>
-      <c r="AT55">
-        <v>0.06</v>
-      </c>
-      <c r="AU55">
-        <v>0.01</v>
-      </c>
-      <c r="AV55">
-        <v>0.01</v>
-      </c>
-      <c r="AW55">
-        <v>0.01</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>1</v>
-      </c>
-      <c r="AZ55">
-        <v>1</v>
-      </c>
-      <c r="BA55" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>1</v>
-      </c>
-      <c r="BE55">
-        <v>1</v>
-      </c>
-      <c r="BF55">
-        <v>1</v>
-      </c>
-      <c r="BG55">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="BH55">
-        <v>0.26</v>
       </c>
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="X56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="AJ56">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="AK56">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AL56">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AM56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AN56">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AO56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU56">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AV56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AW56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AX56">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="AY56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56">
-        <v>1</v>
-      </c>
-      <c r="BB56" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="s">
         <v>59</v>
       </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>1</v>
-      </c>
       <c r="BE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BH56">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -11518,207 +11386,207 @@
         <v>1</v>
       </c>
       <c r="AD57">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="AF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>0.27</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
         <v>0.45</v>
       </c>
-      <c r="AL57">
-        <v>0.42</v>
-      </c>
-      <c r="AM57">
-        <v>0.32</v>
-      </c>
-      <c r="AN57">
-        <v>0.32</v>
-      </c>
-      <c r="AO57">
-        <v>0.32</v>
-      </c>
-      <c r="AP57">
-        <v>1</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
-        <v>1</v>
-      </c>
-      <c r="AS57">
-        <v>1</v>
-      </c>
-      <c r="AT57">
-        <v>0.46</v>
-      </c>
-      <c r="AU57">
-        <v>0.33</v>
-      </c>
-      <c r="AV57">
-        <v>0.35</v>
-      </c>
-      <c r="AW57">
-        <v>0.34</v>
-      </c>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
-        <v>1</v>
-      </c>
       <c r="AZ57">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="BA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57">
-        <v>1</v>
-      </c>
-      <c r="BC57" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>1</v>
+      </c>
+      <c r="BE57" t="s">
         <v>59</v>
       </c>
-      <c r="BD57">
-        <v>1</v>
-      </c>
-      <c r="BE57">
-        <v>1</v>
-      </c>
       <c r="BF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BH57">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>0.17</v>
+      </c>
+      <c r="AH58">
+        <v>0.7</v>
+      </c>
+      <c r="AI58">
         <v>0.01</v>
       </c>
-      <c r="E58">
-        <v>0.01</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0.49</v>
-      </c>
-      <c r="O58">
-        <v>0.04</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0.95</v>
-      </c>
-      <c r="V58">
-        <v>0.1</v>
-      </c>
-      <c r="W58">
-        <v>0.06</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0.49</v>
-      </c>
-      <c r="AA58">
-        <v>0.01</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
       <c r="AJ58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AK58">
         <v>0</v>
@@ -11736,16 +11604,16 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AS58">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -11760,13 +11628,13 @@
         <v>0</v>
       </c>
       <c r="AX58">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="BA58">
         <v>0</v>
@@ -11777,14 +11645,14 @@
       <c r="BC58">
         <v>0</v>
       </c>
-      <c r="BD58" t="s">
+      <c r="BD58">
+        <v>1</v>
+      </c>
+      <c r="BE58">
+        <v>1</v>
+      </c>
+      <c r="BF58" t="s">
         <v>59</v>
-      </c>
-      <c r="BE58">
-        <v>0</v>
-      </c>
-      <c r="BF58">
-        <v>0</v>
       </c>
       <c r="BG58">
         <v>0</v>
@@ -11795,7 +11663,7 @@
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -11882,94 +11750,94 @@
         <v>1</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE59">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ59">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AK59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AP59">
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU59">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AV59">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AW59">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AX59">
         <v>1</v>
       </c>
       <c r="AY59">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AZ59">
+        <v>1</v>
+      </c>
+      <c r="BA59">
+        <v>0.71</v>
+      </c>
+      <c r="BB59">
+        <v>0.48</v>
+      </c>
+      <c r="BC59">
         <v>0.01</v>
       </c>
-      <c r="BA59">
-        <v>0</v>
-      </c>
-      <c r="BB59">
-        <v>0</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
       <c r="BD59">
         <v>1</v>
       </c>
-      <c r="BE59" t="s">
+      <c r="BE59">
+        <v>1</v>
+      </c>
+      <c r="BF59">
+        <v>1</v>
+      </c>
+      <c r="BG59" t="s">
         <v>59</v>
-      </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
       </c>
       <c r="BH59">
         <v>0</v>
@@ -11977,7 +11845,7 @@
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -12064,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AE60">
         <v>1</v>
@@ -12073,488 +11941,105 @@
         <v>1</v>
       </c>
       <c r="AG60">
-        <v>0.17</v>
+        <v>0.99</v>
       </c>
       <c r="AH60">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AI60">
+        <v>0.82</v>
+      </c>
+      <c r="AJ60">
+        <v>0.73</v>
+      </c>
+      <c r="AK60">
+        <v>0.35</v>
+      </c>
+      <c r="AL60">
+        <v>0.33</v>
+      </c>
+      <c r="AM60">
+        <v>0.33</v>
+      </c>
+      <c r="AN60">
+        <v>0.35</v>
+      </c>
+      <c r="AO60">
+        <v>0.36</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AS60">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>0.32</v>
+      </c>
+      <c r="AU60">
+        <v>0.3</v>
+      </c>
+      <c r="AV60">
+        <v>0.37</v>
+      </c>
+      <c r="AW60">
+        <v>0.33</v>
+      </c>
+      <c r="AX60">
+        <v>1</v>
+      </c>
+      <c r="AY60">
+        <v>1</v>
+      </c>
+      <c r="AZ60">
+        <v>1</v>
+      </c>
+      <c r="BA60">
+        <v>0.74</v>
+      </c>
+      <c r="BB60">
+        <v>0.49</v>
+      </c>
+      <c r="BC60">
         <v>0.01</v>
       </c>
-      <c r="AJ60">
-        <v>0.03</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
-      <c r="AM60">
-        <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>0</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
-      </c>
-      <c r="AP60">
-        <v>1</v>
-      </c>
-      <c r="AQ60">
-        <v>1</v>
-      </c>
-      <c r="AR60">
-        <v>0.93</v>
-      </c>
-      <c r="AS60">
-        <v>0.46</v>
-      </c>
-      <c r="AT60">
-        <v>0</v>
-      </c>
-      <c r="AU60">
-        <v>0</v>
-      </c>
-      <c r="AV60">
-        <v>0</v>
-      </c>
-      <c r="AW60">
-        <v>0</v>
-      </c>
-      <c r="AX60">
-        <v>1</v>
-      </c>
-      <c r="AY60">
-        <v>1</v>
-      </c>
-      <c r="AZ60">
-        <v>0.96</v>
-      </c>
-      <c r="BA60">
-        <v>0</v>
-      </c>
-      <c r="BB60">
-        <v>0</v>
-      </c>
-      <c r="BC60">
-        <v>0</v>
-      </c>
       <c r="BD60">
         <v>1</v>
       </c>
       <c r="BE60">
         <v>1</v>
       </c>
-      <c r="BF60" t="s">
-        <v>59</v>
+      <c r="BF60">
+        <v>1</v>
       </c>
       <c r="BG60">
-        <v>0</v>
-      </c>
-      <c r="BH60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>1</v>
-      </c>
-      <c r="AB61">
-        <v>1</v>
-      </c>
-      <c r="AC61">
-        <v>1</v>
-      </c>
-      <c r="AD61">
-        <v>0.1</v>
-      </c>
-      <c r="AE61">
-        <v>1</v>
-      </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
-      <c r="AG61">
-        <v>0.98</v>
-      </c>
-      <c r="AH61">
-        <v>1</v>
-      </c>
-      <c r="AI61">
-        <v>0.75</v>
-      </c>
-      <c r="AJ61">
-        <v>0.71</v>
-      </c>
-      <c r="AK61">
-        <v>0.2</v>
-      </c>
-      <c r="AL61">
-        <v>0.25</v>
-      </c>
-      <c r="AM61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN61">
-        <v>0.12</v>
-      </c>
-      <c r="AO61">
-        <v>0.11</v>
-      </c>
-      <c r="AP61">
-        <v>1</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
-      <c r="AR61">
-        <v>1</v>
-      </c>
-      <c r="AS61">
-        <v>1</v>
-      </c>
-      <c r="AT61">
-        <v>0.2</v>
-      </c>
-      <c r="AU61">
-        <v>0.12</v>
-      </c>
-      <c r="AV61">
-        <v>0.11</v>
-      </c>
-      <c r="AW61">
-        <v>0.12</v>
-      </c>
-      <c r="AX61">
-        <v>1</v>
-      </c>
-      <c r="AY61">
-        <v>1</v>
-      </c>
-      <c r="AZ61">
-        <v>1</v>
-      </c>
-      <c r="BA61">
-        <v>0.71</v>
-      </c>
-      <c r="BB61">
-        <v>0.48</v>
-      </c>
-      <c r="BC61">
-        <v>0.01</v>
-      </c>
-      <c r="BD61">
-        <v>1</v>
-      </c>
-      <c r="BE61">
-        <v>1</v>
-      </c>
-      <c r="BF61">
-        <v>1</v>
-      </c>
-      <c r="BG61" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>1</v>
-      </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>1</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62">
-        <v>1</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62">
-        <v>1</v>
-      </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
-        <v>1</v>
-      </c>
-      <c r="AB62">
-        <v>1</v>
-      </c>
-      <c r="AC62">
-        <v>1</v>
-      </c>
-      <c r="AD62">
-        <v>0.33</v>
-      </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62">
-        <v>0.99</v>
-      </c>
-      <c r="AH62">
-        <v>1</v>
-      </c>
-      <c r="AI62">
-        <v>0.82</v>
-      </c>
-      <c r="AJ62">
-        <v>0.73</v>
-      </c>
-      <c r="AK62">
-        <v>0.35</v>
-      </c>
-      <c r="AL62">
-        <v>0.33</v>
-      </c>
-      <c r="AM62">
-        <v>0.33</v>
-      </c>
-      <c r="AN62">
-        <v>0.35</v>
-      </c>
-      <c r="AO62">
-        <v>0.36</v>
-      </c>
-      <c r="AP62">
-        <v>1</v>
-      </c>
-      <c r="AQ62">
-        <v>1</v>
-      </c>
-      <c r="AR62">
-        <v>1</v>
-      </c>
-      <c r="AS62">
-        <v>1</v>
-      </c>
-      <c r="AT62">
-        <v>0.32</v>
-      </c>
-      <c r="AU62">
-        <v>0.3</v>
-      </c>
-      <c r="AV62">
-        <v>0.37</v>
-      </c>
-      <c r="AW62">
-        <v>0.33</v>
-      </c>
-      <c r="AX62">
-        <v>1</v>
-      </c>
-      <c r="AY62">
-        <v>1</v>
-      </c>
-      <c r="AZ62">
-        <v>1</v>
-      </c>
-      <c r="BA62">
-        <v>0.74</v>
-      </c>
-      <c r="BB62">
-        <v>0.49</v>
-      </c>
-      <c r="BC62">
-        <v>0.01</v>
-      </c>
-      <c r="BD62">
-        <v>1</v>
-      </c>
-      <c r="BE62">
-        <v>1</v>
-      </c>
-      <c r="BF62">
-        <v>1</v>
-      </c>
-      <c r="BG62">
-        <v>1</v>
-      </c>
-      <c r="BH62" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH60" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:BH62">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+  <conditionalFormatting sqref="B2:BH60">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>0</formula>
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>0.9</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>